--- a/server/temp/secret-shares.xlsx
+++ b/server/temp/secret-shares.xlsx
@@ -79,7 +79,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>21957250</v>
+        <v>1325624</v>
       </c>
     </row>
     <row r="3">
@@ -87,7 +87,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20940242</v>
+        <v>23884200</v>
       </c>
     </row>
     <row r="4">
@@ -95,7 +95,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>16181181</v>
+        <v>31811262</v>
       </c>
     </row>
     <row r="5">
@@ -103,7 +103,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>32539058</v>
+        <v>25420356</v>
       </c>
     </row>
     <row r="6">
@@ -111,7 +111,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>30230570</v>
+        <v>15515620</v>
       </c>
     </row>
     <row r="7">
@@ -119,7 +119,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5493521</v>
+        <v>23391784</v>
       </c>
     </row>
     <row r="8">
@@ -127,7 +127,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>24141289</v>
+        <v>13725236</v>
       </c>
     </row>
     <row r="9">
@@ -135,7 +135,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>20236024</v>
+        <v>28791890</v>
       </c>
     </row>
     <row r="10">
@@ -143,7 +143,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>30969917</v>
+        <v>20694851</v>
       </c>
     </row>
     <row r="11">
@@ -151,7 +151,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>28892865</v>
+        <v>19136750</v>
       </c>
     </row>
     <row r="12">
@@ -159,7 +159,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>22575872</v>
+        <v>30756343</v>
       </c>
     </row>
     <row r="13">
@@ -167,7 +167,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>23056582</v>
+        <v>5574044</v>
       </c>
     </row>
     <row r="14">
@@ -175,7 +175,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>10284812</v>
+        <v>4764260</v>
       </c>
     </row>
     <row r="15">
@@ -183,7 +183,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>231486</v>
+        <v>32883056</v>
       </c>
     </row>
     <row r="16">
@@ -191,7 +191,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>11334168</v>
+        <v>4313688</v>
       </c>
     </row>
     <row r="17">
@@ -199,7 +199,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>30942595</v>
+        <v>11702339</v>
       </c>
     </row>
     <row r="18">
@@ -207,7 +207,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>15318677</v>
+        <v>23967916</v>
       </c>
     </row>
     <row r="19">
@@ -215,7 +215,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>23854365</v>
+        <v>20519918</v>
       </c>
     </row>
     <row r="20">
@@ -223,7 +223,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>17744849</v>
+        <v>24812903</v>
       </c>
     </row>
     <row r="21">
@@ -231,7 +231,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>27760893</v>
+        <v>3683087</v>
       </c>
     </row>
     <row r="22">
@@ -239,7 +239,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>20030967</v>
+        <v>1566212</v>
       </c>
     </row>
     <row r="23">
@@ -247,7 +247,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>30259115</v>
+        <v>6279678</v>
       </c>
     </row>
     <row r="24">
@@ -255,7 +255,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>29507087</v>
+        <v>16131477</v>
       </c>
     </row>
     <row r="25">
@@ -263,7 +263,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>24857740</v>
+        <v>6365726</v>
       </c>
     </row>
     <row r="26">
@@ -271,7 +271,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>25860571</v>
+        <v>29826068</v>
       </c>
     </row>
     <row r="27">
@@ -279,7 +279,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>10977250</v>
+        <v>15628870</v>
       </c>
     </row>
     <row r="28">
@@ -287,7 +287,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>28245021</v>
+        <v>4044492</v>
       </c>
     </row>
     <row r="29">
@@ -295,7 +295,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>27504367</v>
+        <v>12279419</v>
       </c>
     </row>
     <row r="30">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>28171345</v>
+        <v>921794</v>
       </c>
     </row>
     <row r="31">
@@ -311,167 +311,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>18574185</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>23062224</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>1342505</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>16252112</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>32431368</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>16987236</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>6602253</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>6871129</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>25855214</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>6973564</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>30329743</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>10721620</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>33186039</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>17454149</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>19941607</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>32421776</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>15580192</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>33232432</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>17442845</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>3405821</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>28782390</v>
+        <v>8159286</v>
       </c>
     </row>
   </sheetData>

--- a/server/temp/secret-shares.xlsx
+++ b/server/temp/secret-shares.xlsx
@@ -79,7 +79,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1325624</v>
+        <v>27446547</v>
       </c>
     </row>
     <row r="3">
@@ -87,7 +87,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>23884200</v>
+        <v>11284996</v>
       </c>
     </row>
     <row r="4">
@@ -95,7 +95,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>31811262</v>
+        <v>27237078</v>
       </c>
     </row>
     <row r="5">
@@ -103,7 +103,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>25420356</v>
+        <v>7025799</v>
       </c>
     </row>
     <row r="6">
@@ -111,7 +111,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>15515620</v>
+        <v>12207958</v>
       </c>
     </row>
     <row r="7">
@@ -119,7 +119,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>23391784</v>
+        <v>32847345</v>
       </c>
     </row>
     <row r="8">
@@ -127,7 +127,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>13725236</v>
+        <v>21069208</v>
       </c>
     </row>
     <row r="9">
@@ -135,7 +135,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>28791890</v>
+        <v>25278121</v>
       </c>
     </row>
     <row r="10">
@@ -143,7 +143,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>20694851</v>
+        <v>22385649</v>
       </c>
     </row>
     <row r="11">
@@ -151,7 +151,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>19136750</v>
+        <v>18473749</v>
       </c>
     </row>
     <row r="12">
@@ -159,7 +159,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>30756343</v>
+        <v>15240303</v>
       </c>
     </row>
     <row r="13">
@@ -167,7 +167,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>5574044</v>
+        <v>9999118</v>
       </c>
     </row>
     <row r="14">
@@ -175,7 +175,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4764260</v>
+        <v>29234393</v>
       </c>
     </row>
     <row r="15">
@@ -183,7 +183,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>32883056</v>
+        <v>27937318</v>
       </c>
     </row>
     <row r="16">
@@ -191,7 +191,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4313688</v>
+        <v>23823942</v>
       </c>
     </row>
     <row r="17">
@@ -199,7 +199,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>11702339</v>
+        <v>30226239</v>
       </c>
     </row>
     <row r="18">
@@ -207,7 +207,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>23967916</v>
+        <v>22537641</v>
       </c>
     </row>
     <row r="19">
@@ -215,7 +215,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>20519918</v>
+        <v>5321972</v>
       </c>
     </row>
     <row r="20">
@@ -223,7 +223,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>24812903</v>
+        <v>12313448</v>
       </c>
     </row>
     <row r="21">
@@ -231,7 +231,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>3683087</v>
+        <v>5753276</v>
       </c>
     </row>
     <row r="22">
@@ -239,7 +239,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1566212</v>
+        <v>10607522</v>
       </c>
     </row>
     <row r="23">
@@ -247,7 +247,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>6279678</v>
+        <v>13903710</v>
       </c>
     </row>
     <row r="24">
@@ -255,7 +255,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>16131477</v>
+        <v>31839756</v>
       </c>
     </row>
     <row r="25">
@@ -263,7 +263,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>6365726</v>
+        <v>9120567</v>
       </c>
     </row>
     <row r="26">
@@ -271,7 +271,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>29826068</v>
+        <v>20284843</v>
       </c>
     </row>
     <row r="27">
@@ -279,7 +279,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>15628870</v>
+        <v>1269341</v>
       </c>
     </row>
     <row r="28">
@@ -287,7 +287,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>4044492</v>
+        <v>17844611</v>
       </c>
     </row>
     <row r="29">
@@ -295,7 +295,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>12279419</v>
+        <v>30733727</v>
       </c>
     </row>
     <row r="30">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>921794</v>
+        <v>29830155</v>
       </c>
     </row>
     <row r="31">
@@ -311,7 +311,87 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>8159286</v>
+        <v>643286</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>24961837</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>12418115</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>2478220</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>30224177</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>25690535</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>15191169</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>20655879</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>26075923</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>11058484</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>17935604</v>
       </c>
     </row>
   </sheetData>

--- a/server/temp/secret-shares.xlsx
+++ b/server/temp/secret-shares.xlsx
@@ -79,7 +79,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>27446547</v>
+        <v>1228887</v>
       </c>
     </row>
     <row r="3">
@@ -87,7 +87,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11284996</v>
+        <v>9986027</v>
       </c>
     </row>
     <row r="4">
@@ -95,7 +95,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>27237078</v>
+        <v>14425608</v>
       </c>
     </row>
     <row r="5">
@@ -103,7 +103,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7025799</v>
+        <v>7172627</v>
       </c>
     </row>
     <row r="6">
@@ -111,7 +111,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>12207958</v>
+        <v>1245426</v>
       </c>
     </row>
     <row r="7">
@@ -119,7 +119,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>32847345</v>
+        <v>12183353</v>
       </c>
     </row>
     <row r="8">
@@ -127,7 +127,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>21069208</v>
+        <v>23077314</v>
       </c>
     </row>
     <row r="9">
@@ -135,7 +135,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>25278121</v>
+        <v>33166617</v>
       </c>
     </row>
     <row r="10">
@@ -143,7 +143,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>22385649</v>
+        <v>22229773</v>
       </c>
     </row>
     <row r="11">
@@ -151,7 +151,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>18473749</v>
+        <v>32096056</v>
       </c>
     </row>
     <row r="12">
@@ -159,7 +159,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>15240303</v>
+        <v>29733152</v>
       </c>
     </row>
     <row r="13">
@@ -167,7 +167,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>9999118</v>
+        <v>21673435</v>
       </c>
     </row>
     <row r="14">
@@ -175,7 +175,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>29234393</v>
+        <v>17125266</v>
       </c>
     </row>
     <row r="15">
@@ -183,7 +183,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>27937318</v>
+        <v>7541650</v>
       </c>
     </row>
     <row r="16">
@@ -191,7 +191,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>23823942</v>
+        <v>29755185</v>
       </c>
     </row>
     <row r="17">
@@ -199,7 +199,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>30226239</v>
+        <v>10689100</v>
       </c>
     </row>
     <row r="18">
@@ -207,7 +207,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>22537641</v>
+        <v>31179255</v>
       </c>
     </row>
     <row r="19">
@@ -215,7 +215,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>5321972</v>
+        <v>2273093</v>
       </c>
     </row>
     <row r="20">
@@ -223,7 +223,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>12313448</v>
+        <v>29075290</v>
       </c>
     </row>
     <row r="21">
@@ -231,7 +231,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>5753276</v>
+        <v>19298022</v>
       </c>
     </row>
     <row r="22">
@@ -239,7 +239,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>10607522</v>
+        <v>12912397</v>
       </c>
     </row>
     <row r="23">
@@ -247,7 +247,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>13903710</v>
+        <v>24940240</v>
       </c>
     </row>
     <row r="24">
@@ -255,7 +255,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>31839756</v>
+        <v>5366637</v>
       </c>
     </row>
     <row r="25">
@@ -263,7 +263,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>9120567</v>
+        <v>16836639</v>
       </c>
     </row>
     <row r="26">
@@ -271,7 +271,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>20284843</v>
+        <v>26155720</v>
       </c>
     </row>
     <row r="27">
@@ -279,7 +279,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1269341</v>
+        <v>14237796</v>
       </c>
     </row>
     <row r="28">
@@ -287,111 +287,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>17844611</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>30733727</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>29830155</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>643286</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>24961837</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>12418115</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>2478220</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>30224177</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>25690535</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>15191169</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>20655879</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>26075923</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>11058484</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>17935604</v>
+        <v>1847201</v>
       </c>
     </row>
   </sheetData>

--- a/server/temp/secret-shares.xlsx
+++ b/server/temp/secret-shares.xlsx
@@ -79,7 +79,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1228887</v>
+        <v>15510766</v>
       </c>
     </row>
     <row r="3">
@@ -87,7 +87,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9986027</v>
+        <v>15226030</v>
       </c>
     </row>
     <row r="4">
@@ -95,7 +95,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>14425608</v>
+        <v>25994070</v>
       </c>
     </row>
     <row r="5">
@@ -103,7 +103,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7172627</v>
+        <v>17130870</v>
       </c>
     </row>
     <row r="6">
@@ -111,7 +111,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1245426</v>
+        <v>17203209</v>
       </c>
     </row>
     <row r="7">
@@ -119,7 +119,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>12183353</v>
+        <v>12201058</v>
       </c>
     </row>
     <row r="8">
@@ -127,7 +127,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>23077314</v>
+        <v>19483572</v>
       </c>
     </row>
     <row r="9">
@@ -135,7 +135,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>33166617</v>
+        <v>4894528</v>
       </c>
     </row>
     <row r="10">
@@ -143,7 +143,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>22229773</v>
+        <v>16223412</v>
       </c>
     </row>
     <row r="11">
@@ -151,7 +151,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>32096056</v>
+        <v>33510030</v>
       </c>
     </row>
     <row r="12">
@@ -159,7 +159,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>29733152</v>
+        <v>14510009</v>
       </c>
     </row>
     <row r="13">
@@ -167,7 +167,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>21673435</v>
+        <v>20304038</v>
       </c>
     </row>
     <row r="14">
@@ -175,7 +175,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>17125266</v>
+        <v>4966237</v>
       </c>
     </row>
     <row r="15">
@@ -183,7 +183,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7541650</v>
+        <v>31652011</v>
       </c>
     </row>
     <row r="16">
@@ -191,7 +191,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>29755185</v>
+        <v>22476384</v>
       </c>
     </row>
     <row r="17">
@@ -199,7 +199,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>10689100</v>
+        <v>16997460</v>
       </c>
     </row>
     <row r="18">
@@ -207,7 +207,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>31179255</v>
+        <v>27875359</v>
       </c>
     </row>
     <row r="19">
@@ -215,7 +215,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2273093</v>
+        <v>13890038</v>
       </c>
     </row>
     <row r="20">
@@ -223,7 +223,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>29075290</v>
+        <v>11057718</v>
       </c>
     </row>
     <row r="21">
@@ -231,7 +231,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>19298022</v>
+        <v>20994274</v>
       </c>
     </row>
     <row r="22">
@@ -239,7 +239,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>12912397</v>
+        <v>10767222</v>
       </c>
     </row>
     <row r="23">
@@ -247,7 +247,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>24940240</v>
+        <v>16555883</v>
       </c>
     </row>
     <row r="24">
@@ -255,7 +255,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>5366637</v>
+        <v>20794546</v>
       </c>
     </row>
     <row r="25">
@@ -263,7 +263,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>16836639</v>
+        <v>26391554</v>
       </c>
     </row>
     <row r="26">
@@ -271,7 +271,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>26155720</v>
+        <v>22750288</v>
       </c>
     </row>
     <row r="27">
@@ -279,7 +279,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>14237796</v>
+        <v>7521688</v>
       </c>
     </row>
     <row r="28">
@@ -287,7 +287,47 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1847201</v>
+        <v>26955358</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>24290344</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>20739399</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>33506688</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>3300255</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>17771064</v>
       </c>
     </row>
   </sheetData>

--- a/server/temp/secret-shares.xlsx
+++ b/server/temp/secret-shares.xlsx
@@ -79,7 +79,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3553815</v>
+        <v>18141565</v>
       </c>
     </row>
     <row r="3">
@@ -87,7 +87,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>18720958</v>
+        <v>8748139</v>
       </c>
     </row>
     <row r="4">
@@ -95,7 +95,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>23763287</v>
+        <v>7081924</v>
       </c>
     </row>
     <row r="5">
@@ -103,7 +103,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>8072949</v>
+        <v>32322625</v>
       </c>
     </row>
     <row r="6">
@@ -111,7 +111,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>15749017</v>
+        <v>16460064</v>
       </c>
     </row>
     <row r="7">
@@ -119,7 +119,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10510505</v>
+        <v>5620982</v>
       </c>
     </row>
     <row r="8">
@@ -127,7 +127,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>13220741</v>
+        <v>25851171</v>
       </c>
     </row>
     <row r="9">
@@ -135,7 +135,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>10235838</v>
+        <v>16006540</v>
       </c>
     </row>
     <row r="10">
@@ -143,7 +143,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>19137430</v>
+        <v>29079917</v>
       </c>
     </row>
     <row r="11">
@@ -151,7 +151,727 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4698583</v>
+        <v>30874247</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>665993</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>31868537</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>30041977</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14883330</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>19563131</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>23616499</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>20052071</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>15352002</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>29471965</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>28732217</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>26481000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>15985607</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>3986849</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>10699055</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2701138</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>27154463</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>10476045</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>26774285</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>29413234</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>18784928</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>8754921</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>26662285</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>12656209</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>21022801</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>18858286</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>20286874</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>19351826</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>23569921</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>20376989</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>10682378</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>8868954</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>9238634</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>19566853</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>27548097</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>795903</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>21060727</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>15794208</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>26584904</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7831490</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>28069560</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1535891</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>23713113</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>2230572</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>25963467</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>29488180</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>27963545</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>16467447</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>3551289</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>11239992</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7923061</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>9017986</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>9861308</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>19263086</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>25952430</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>32131968</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>19923379</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>18476327</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>3305060</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>30506278</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>1877864</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>463554</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>22117201</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>9057242</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>17639033</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>17028047</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>23417742</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>32920627</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>21568262</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>12420192</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>8455013</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>26124839</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>28246368</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>24664283</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>5142318</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>6472192</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>11810208</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>17786187</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>949001</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>18429974</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>6616080</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>16031212</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>10009380</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>32467046</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>6576322</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>3200706</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>6013813</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>12162776</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>32268246</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>23315458</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>22872099</v>
       </c>
     </row>
   </sheetData>
